--- a/Speed_complete.xlsx
+++ b/Speed_complete.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p41742\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public\git\_github\coffee-burns-snake\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D19CE1-3C10-46B1-B039-F56FB094854F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C1C878-6291-43D3-967E-B2322F759D57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="5630" windowHeight="1540" xr2:uid="{18E85150-0F93-4B09-A482-1F73FF2332EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>AmazonCorretto-Imaging-single</t>
   </si>
@@ -98,6 +98,12 @@
   <si>
     <t>Python-Numpy-Scipy</t>
   </si>
+  <si>
+    <t>OpenJdk-OpenCV</t>
+  </si>
+  <si>
+    <t>Python-OpenCV</t>
+  </si>
 </sst>
 </file>
 
@@ -132,9 +138,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5DBE190-B1DD-42B8-BBAD-09776C9B9BE7}">
-  <dimension ref="A1:X101"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S42" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -481,9 +488,11 @@
     <col min="22" max="22" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27.08984375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -556,8 +565,14 @@
       <c r="X1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>251</v>
       </c>
@@ -621,17 +636,23 @@
       <c r="U2" s="1">
         <v>9170.7618999998795</v>
       </c>
-      <c r="V2" s="1">
+      <c r="V2" s="2">
         <v>83.031799999844196</v>
       </c>
-      <c r="W2" s="1">
+      <c r="W2" s="2">
         <v>3.57199999962176</v>
       </c>
-      <c r="X2" s="1">
+      <c r="X2" s="2">
         <v>33.369400000083196</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y2" s="2">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>4.6098999991954699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>205</v>
       </c>
@@ -695,17 +716,23 @@
       <c r="U3" s="1">
         <v>8967.8235999999706</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="2">
         <v>83.085399999617906</v>
       </c>
-      <c r="W3" s="1">
+      <c r="W3" s="2">
         <v>3.62480000057985</v>
       </c>
-      <c r="X3" s="1">
+      <c r="X3" s="2">
         <v>32.902099999773696</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y3" s="2">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>4.5798999999533399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>187</v>
       </c>
@@ -769,17 +796,23 @@
       <c r="U4" s="1">
         <v>9001.4584000000395</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="2">
         <v>83.100199999535093</v>
       </c>
-      <c r="W4" s="1">
+      <c r="W4" s="2">
         <v>3.58740000046964</v>
       </c>
-      <c r="X4" s="1">
+      <c r="X4" s="2">
         <v>32.9489000005196</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y4" s="2">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>4.5505000016419199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>220</v>
       </c>
@@ -843,17 +876,23 @@
       <c r="U5" s="1">
         <v>8944.8755000003002</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="2">
         <v>83.253799999511102</v>
       </c>
-      <c r="W5" s="1">
+      <c r="W5" s="2">
         <v>3.5478999998303999</v>
       </c>
-      <c r="X5" s="1">
+      <c r="X5" s="2">
         <v>33.147799999824201</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y5" s="2">
+        <v>0.40579999999999999</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>4.5368999999482096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>189</v>
       </c>
@@ -917,17 +956,23 @@
       <c r="U6" s="1">
         <v>8980.3611000006604</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="2">
         <v>83.135500000025701</v>
       </c>
-      <c r="W6" s="1">
+      <c r="W6" s="2">
         <v>3.49430000005668</v>
       </c>
-      <c r="X6" s="1">
+      <c r="X6" s="2">
         <v>33.096000000114095</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y6" s="2">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>4.6277000001282396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>186</v>
       </c>
@@ -991,17 +1036,23 @@
       <c r="U7" s="1">
         <v>9017.5288999998793</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="2">
         <v>83.492699999624094</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W7" s="2">
         <v>3.5491999997248</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X7" s="2">
         <v>33.811400000558898</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y7" s="2">
+        <v>0.50229999999999997</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>4.5539000020653395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>186</v>
       </c>
@@ -1065,17 +1116,23 @@
       <c r="U8" s="1">
         <v>9022.4423999998089</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="2">
         <v>83.278699999937004</v>
       </c>
-      <c r="W8" s="1">
+      <c r="W8" s="2">
         <v>3.5152000000380199</v>
       </c>
-      <c r="X8" s="1">
+      <c r="X8" s="2">
         <v>33.115300000645199</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y8" s="2">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>4.56769999800599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>249</v>
       </c>
@@ -1139,17 +1196,23 @@
       <c r="U9" s="1">
         <v>9038.1265999994794</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="2">
         <v>83.069399999658302</v>
       </c>
-      <c r="W9" s="1">
+      <c r="W9" s="2">
         <v>3.6051999995834101</v>
       </c>
-      <c r="X9" s="1">
+      <c r="X9" s="2">
         <v>32.9818999998678</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y9" s="2">
+        <v>0.3931</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>4.5312000002013502</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>191</v>
       </c>
@@ -1213,17 +1276,23 @@
       <c r="U10" s="1">
         <v>9039.7553000002499</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="2">
         <v>83.282400000825803</v>
       </c>
-      <c r="W10" s="1">
+      <c r="W10" s="2">
         <v>3.5536000004867598</v>
       </c>
-      <c r="X10" s="1">
+      <c r="X10" s="2">
         <v>33.291100000496897</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y10" s="2">
+        <v>0.39410000000000001</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>4.7053000016603601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>190</v>
       </c>
@@ -1287,17 +1356,23 @@
       <c r="U11" s="1">
         <v>9000.4042999999001</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="2">
         <v>83.291100000678796</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W11" s="2">
         <v>3.48969999959081</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X11" s="2">
         <v>33.004300000356999</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y11" s="2">
+        <v>0.39219999999999999</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>4.60849999944912</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>187</v>
       </c>
@@ -1361,17 +1436,23 @@
       <c r="U12" s="1">
         <v>9001.1089999998094</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="2">
         <v>83.161300000028803</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W12" s="2">
         <v>4.4934999996257803</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X12" s="2">
         <v>33.181100000547303</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y12" s="2">
+        <v>0.40389999999999998</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>4.5616999996127499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>209</v>
       </c>
@@ -1435,17 +1516,23 @@
       <c r="U13" s="1">
         <v>9027.0865000002195</v>
       </c>
-      <c r="V13" s="1">
+      <c r="V13" s="2">
         <v>83.821299999726705</v>
       </c>
-      <c r="W13" s="1">
+      <c r="W13" s="2">
         <v>4.1322999995827496</v>
       </c>
-      <c r="X13" s="1">
+      <c r="X13" s="2">
         <v>33.164899999974196</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y13" s="2">
+        <v>0.39150000000000001</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>4.6151999995345196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>187</v>
       </c>
@@ -1509,17 +1596,23 @@
       <c r="U14" s="1">
         <v>8986.8108999999095</v>
       </c>
-      <c r="V14" s="1">
+      <c r="V14" s="2">
         <v>83.245699999679303</v>
       </c>
-      <c r="W14" s="1">
+      <c r="W14" s="2">
         <v>3.5361000000193599</v>
       </c>
-      <c r="X14" s="1">
+      <c r="X14" s="2">
         <v>33.087599999817002</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y14" s="2">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>4.6466999992844595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>186</v>
       </c>
@@ -1583,17 +1676,23 @@
       <c r="U15" s="1">
         <v>9021.7823000002591</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V15" s="2">
         <v>83.017099999779006</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W15" s="2">
         <v>3.5251999997854</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X15" s="2">
         <v>33.132199999272402</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y15" s="2">
+        <v>0.3957</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>4.5365000005403999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>187</v>
       </c>
@@ -1657,17 +1756,23 @@
       <c r="U16" s="1">
         <v>9034.2267999994801</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V16" s="2">
         <v>83.253099999637897</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="2">
         <v>3.4697000000960498</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X16" s="2">
         <v>33.461800000623001</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y16" s="2">
+        <v>0.40439999999999998</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>4.5390000013867295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>187</v>
       </c>
@@ -1731,17 +1836,23 @@
       <c r="U17" s="1">
         <v>8999.5076999994108</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V17" s="2">
         <v>83.012699999926497</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W17" s="2">
         <v>3.5889999999199</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X17" s="2">
         <v>33.622699999796097</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y17" s="2">
+        <v>0.3962</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>4.6156999997037902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>232</v>
       </c>
@@ -1805,17 +1916,23 @@
       <c r="U18" s="1">
         <v>9053.4588000000404</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V18" s="2">
         <v>83.265899999787493</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W18" s="2">
         <v>3.5864999999830598</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X18" s="2">
         <v>33.368800000062002</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y18" s="2">
+        <v>0.40739999999999998</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>4.54089999766438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>190</v>
       </c>
@@ -1879,17 +1996,23 @@
       <c r="U19" s="1">
         <v>9039.7902000004196</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V19" s="2">
         <v>83.641200000783996</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W19" s="2">
         <v>3.5350999996808201</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X19" s="2">
         <v>32.995100000334695</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y19" s="2">
+        <v>0.39510000000000001</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>4.5387999998638398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>187</v>
       </c>
@@ -1953,17 +2076,23 @@
       <c r="U20" s="1">
         <v>9037.16800000074</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V20" s="2">
         <v>83.015600000180697</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W20" s="2">
         <v>3.4765999998853601</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X20" s="2">
         <v>33.048000000235298</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y20" s="2">
+        <v>0.4204</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>4.5371999985945797</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>188</v>
       </c>
@@ -2027,17 +2156,23 @@
       <c r="U21" s="1">
         <v>9036.5001999998603</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V21" s="2">
         <v>83.235699999931896</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W21" s="2">
         <v>3.4753999998429199</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X21" s="2">
         <v>33.375200000591498</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y21" s="2">
+        <v>0.41839999999999999</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>4.6417000012297596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>187</v>
       </c>
@@ -2101,17 +2236,23 @@
       <c r="U22" s="1">
         <v>9040.5519000005297</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V22" s="2">
         <v>83.346199999141291</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W22" s="2">
         <v>3.5555000004023802</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X22" s="2">
         <v>33.546399999977396</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y22" s="2">
+        <v>0.41639999999999999</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>4.53560000096331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>188</v>
       </c>
@@ -2175,17 +2316,23 @@
       <c r="U23" s="1">
         <v>9006.7825000005505</v>
       </c>
-      <c r="V23" s="1">
+      <c r="V23" s="2">
         <v>83.081999999194494</v>
       </c>
-      <c r="W23" s="1">
+      <c r="W23" s="2">
         <v>3.5453000000415997</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X23" s="2">
         <v>33.089900000049902</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y23" s="2">
+        <v>0.39129999999999998</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>4.5554999996966199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>189</v>
       </c>
@@ -2249,17 +2396,23 @@
       <c r="U24" s="1">
         <v>8996.4471000002904</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V24" s="2">
         <v>83.346000000346905</v>
       </c>
-      <c r="W24" s="1">
+      <c r="W24" s="2">
         <v>3.5656000000017198</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X24" s="2">
         <v>33.267000000705501</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y24" s="2">
+        <v>0.40129999999999999</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>4.5365999976638696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>229</v>
       </c>
@@ -2323,17 +2476,23 @@
       <c r="U25" s="1">
         <v>8983.0512000007693</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V25" s="2">
         <v>83.256699999765203</v>
       </c>
-      <c r="W25" s="1">
+      <c r="W25" s="2">
         <v>3.5032000005230599</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X25" s="2">
         <v>33.124499999757901</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y25" s="2">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>4.6366000024136103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>231</v>
       </c>
@@ -2397,17 +2556,23 @@
       <c r="U26" s="1">
         <v>8990.3445999998403</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V26" s="2">
         <v>83.213900000373499</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W26" s="2">
         <v>3.5336999999344698</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X26" s="2">
         <v>32.835300000442601</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y26" s="2">
+        <v>0.3896</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>4.5305999992706303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>232</v>
       </c>
@@ -2471,17 +2636,23 @@
       <c r="U27" s="1">
         <v>8981.7417000003807</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V27" s="2">
         <v>83.306300000003802</v>
       </c>
-      <c r="W27" s="1">
+      <c r="W27" s="2">
         <v>3.53320000067469</v>
       </c>
-      <c r="X27" s="1">
+      <c r="X27" s="2">
         <v>33.225600000150699</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y27" s="2">
+        <v>0.4143</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>4.5745999996142901</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>234</v>
       </c>
@@ -2545,17 +2716,23 @@
       <c r="U28" s="1">
         <v>8983.7913999999691</v>
       </c>
-      <c r="V28" s="1">
+      <c r="V28" s="2">
         <v>82.998199999565202</v>
       </c>
-      <c r="W28" s="1">
+      <c r="W28" s="2">
         <v>3.5686999999597901</v>
       </c>
-      <c r="X28" s="1">
+      <c r="X28" s="2">
         <v>33.093500000177301</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y28" s="2">
+        <v>0.40839999999999999</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>4.5299000012164399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>230</v>
       </c>
@@ -2619,17 +2796,23 @@
       <c r="U29" s="1">
         <v>9022.2863999997498</v>
       </c>
-      <c r="V29" s="1">
+      <c r="V29" s="2">
         <v>83.203899999716597</v>
       </c>
-      <c r="W29" s="1">
+      <c r="W29" s="2">
         <v>3.5712999997485801</v>
       </c>
-      <c r="X29" s="1">
+      <c r="X29" s="2">
         <v>33.078000000386901</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y29" s="2">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>4.6015000007173503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>232</v>
       </c>
@@ -2693,17 +2876,23 @@
       <c r="U30" s="1">
         <v>9032.9022000005298</v>
       </c>
-      <c r="V30" s="1">
+      <c r="V30" s="2">
         <v>83.091399999830102</v>
       </c>
-      <c r="W30" s="1">
+      <c r="W30" s="2">
         <v>3.5393999996813297</v>
       </c>
-      <c r="X30" s="1">
+      <c r="X30" s="2">
         <v>33.206799999788899</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y30" s="2">
+        <v>0.39429999999999998</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>4.5332999980018895</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>204</v>
       </c>
@@ -2767,17 +2956,23 @@
       <c r="U31" s="1">
         <v>9004.5325000000903</v>
       </c>
-      <c r="V31" s="1">
+      <c r="V31" s="2">
         <v>83.481799999390205</v>
       </c>
-      <c r="W31" s="1">
+      <c r="W31" s="2">
         <v>3.54090000018914</v>
       </c>
-      <c r="X31" s="1">
+      <c r="X31" s="2">
         <v>32.697499999812798</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y31" s="2">
+        <v>0.41349999999999998</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>4.5294000010471702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>202</v>
       </c>
@@ -2841,17 +3036,23 @@
       <c r="U32" s="1">
         <v>8994.5300999997908</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V32" s="2">
         <v>83.362299999862401</v>
       </c>
-      <c r="W32" s="1">
+      <c r="W32" s="2">
         <v>3.56659999943076</v>
       </c>
-      <c r="X32" s="1">
+      <c r="X32" s="2">
         <v>33.128000000033296</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y32" s="2">
+        <v>0.3921</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>4.5992999985173801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>204</v>
       </c>
@@ -2915,17 +3116,23 @@
       <c r="U33" s="1">
         <v>8978.1179999999895</v>
       </c>
-      <c r="V33" s="1">
+      <c r="V33" s="2">
         <v>83.077400000547598</v>
       </c>
-      <c r="W33" s="1">
+      <c r="W33" s="2">
         <v>3.5951999998360398</v>
       </c>
-      <c r="X33" s="1">
+      <c r="X33" s="2">
         <v>33.061099999940701</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y33" s="2">
+        <v>0.38850000000000001</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>4.5543000014731598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>203</v>
       </c>
@@ -2989,17 +3196,23 @@
       <c r="U34" s="1">
         <v>9003.1443000007093</v>
       </c>
-      <c r="V34" s="1">
+      <c r="V34" s="2">
         <v>83.077999999659298</v>
       </c>
-      <c r="W34" s="1">
+      <c r="W34" s="2">
         <v>3.6209000008966501</v>
       </c>
-      <c r="X34" s="1">
+      <c r="X34" s="2">
         <v>33.177799999975797</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y34" s="2">
+        <v>0.40439999999999998</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>4.7675999994680698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>203</v>
       </c>
@@ -3063,17 +3276,23 @@
       <c r="U35" s="1">
         <v>9006.0434000006298</v>
       </c>
-      <c r="V35" s="1">
+      <c r="V35" s="2">
         <v>83.280400000148802</v>
       </c>
-      <c r="W35" s="1">
+      <c r="W35" s="2">
         <v>3.5204000005251097</v>
       </c>
-      <c r="X35" s="1">
+      <c r="X35" s="2">
         <v>33.024800000020996</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y35" s="2">
+        <v>0.39279999999999998</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>4.5463999995263196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>201</v>
       </c>
@@ -3137,17 +3356,23 @@
       <c r="U36" s="1">
         <v>9008.9853999997995</v>
       </c>
-      <c r="V36" s="1">
+      <c r="V36" s="2">
         <v>83.112299999811498</v>
       </c>
-      <c r="W36" s="1">
+      <c r="W36" s="2">
         <v>3.6276000000725599</v>
       </c>
-      <c r="X36" s="1">
+      <c r="X36" s="2">
         <v>32.986799999889598</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y36" s="2">
+        <v>0.40329999999999999</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>4.5747000003757403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>201</v>
       </c>
@@ -3211,17 +3436,23 @@
       <c r="U37" s="1">
         <v>9051.3805000000502</v>
       </c>
-      <c r="V37" s="1">
+      <c r="V37" s="2">
         <v>83.795399999871705</v>
       </c>
-      <c r="W37" s="1">
+      <c r="W37" s="2">
         <v>3.5375999996176599</v>
       </c>
-      <c r="X37" s="1">
+      <c r="X37" s="2">
         <v>33.140200000161698</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y37" s="2">
+        <v>0.38950000000000001</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>4.5576000011351399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>201</v>
       </c>
@@ -3285,17 +3516,23 @@
       <c r="U38" s="1">
         <v>9043.2918000005793</v>
       </c>
-      <c r="V38" s="1">
+      <c r="V38" s="2">
         <v>84.314799999447104</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W38" s="2">
         <v>3.57449999955861</v>
       </c>
-      <c r="X38" s="1">
+      <c r="X38" s="2">
         <v>32.957399999759197</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y38" s="2">
+        <v>0.40389999999999998</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>4.52809999842429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>201</v>
       </c>
@@ -3359,17 +3596,23 @@
       <c r="U39" s="1">
         <v>9069.6986999992005</v>
       </c>
-      <c r="V39" s="1">
+      <c r="V39" s="2">
         <v>83.327899999858303</v>
       </c>
-      <c r="W39" s="1">
+      <c r="W39" s="2">
         <v>3.56840000040392</v>
       </c>
-      <c r="X39" s="1">
+      <c r="X39" s="2">
         <v>33.388800000466198</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y39" s="2">
+        <v>0.39190000000000003</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>4.5338000018091398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>201</v>
       </c>
@@ -3433,17 +3676,23 @@
       <c r="U40" s="1">
         <v>9042.2719999996807</v>
       </c>
-      <c r="V40" s="1">
+      <c r="V40" s="2">
         <v>83.477399999537695</v>
       </c>
-      <c r="W40" s="1">
+      <c r="W40" s="2">
         <v>3.65920000058395</v>
       </c>
-      <c r="X40" s="1">
+      <c r="X40" s="2">
         <v>33.032100000127599</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y40" s="2">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>4.6163000006345101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>201</v>
       </c>
@@ -3507,17 +3756,23 @@
       <c r="U41" s="1">
         <v>9031.906300000619</v>
       </c>
-      <c r="V41" s="1">
+      <c r="V41" s="2">
         <v>83.127900000363297</v>
       </c>
-      <c r="W41" s="1">
+      <c r="W41" s="2">
         <v>3.5335000002305601</v>
       </c>
-      <c r="X41" s="1">
+      <c r="X41" s="2">
         <v>33.2395000004908</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y41" s="2">
+        <v>0.4032</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>4.5496999991882996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>202</v>
       </c>
@@ -3581,17 +3836,23 @@
       <c r="U42" s="1">
         <v>9033.3222999997797</v>
       </c>
-      <c r="V42" s="1">
+      <c r="V42" s="2">
         <v>83.120600000256601</v>
       </c>
-      <c r="W42" s="1">
+      <c r="W42" s="2">
         <v>3.5757999994530101</v>
       </c>
-      <c r="X42" s="1">
+      <c r="X42" s="2">
         <v>33.207700000275501</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y42" s="2">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>4.5563000021502296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>201</v>
       </c>
@@ -3655,17 +3916,23 @@
       <c r="U43" s="1">
         <v>9018.754499999879</v>
       </c>
-      <c r="V43" s="1">
+      <c r="V43" s="2">
         <v>83.413100000143402</v>
       </c>
-      <c r="W43" s="1">
+      <c r="W43" s="2">
         <v>3.5354999999981298</v>
       </c>
-      <c r="X43" s="1">
+      <c r="X43" s="2">
         <v>33.304799999314099</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y43" s="2">
+        <v>0.42409999999999998</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>4.61920000088866</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>201</v>
       </c>
@@ -3729,17 +3996,23 @@
       <c r="U44" s="1">
         <v>9024.8473000001395</v>
       </c>
-      <c r="V44" s="1">
+      <c r="V44" s="2">
         <v>83.117299999685201</v>
       </c>
-      <c r="W44" s="1">
+      <c r="W44" s="2">
         <v>3.5549000003811599</v>
       </c>
-      <c r="X44" s="1">
+      <c r="X44" s="2">
         <v>33.456699999987897</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y44" s="2">
+        <v>0.40489999999999998</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>4.5755999999528196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>202</v>
       </c>
@@ -3803,17 +4076,23 @@
       <c r="U45" s="1">
         <v>9015.2881000003599</v>
       </c>
-      <c r="V45" s="1">
+      <c r="V45" s="2">
         <v>83.020699999906299</v>
       </c>
-      <c r="W45" s="1">
+      <c r="W45" s="2">
         <v>3.6430999998628897</v>
       </c>
-      <c r="X45" s="1">
+      <c r="X45" s="2">
         <v>32.922600000347302</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y45" s="2">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>4.5702999996137796</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>201</v>
       </c>
@@ -3877,17 +4156,23 @@
       <c r="U46" s="1">
         <v>9043.1725999996997</v>
       </c>
-      <c r="V46" s="1">
+      <c r="V46" s="2">
         <v>83.300799999960802</v>
       </c>
-      <c r="W46" s="1">
+      <c r="W46" s="2">
         <v>3.5196999997424401</v>
       </c>
-      <c r="X46" s="1">
+      <c r="X46" s="2">
         <v>33.468999999968197</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y46" s="2">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>4.5532000003731801</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>201</v>
       </c>
@@ -3951,17 +4236,23 @@
       <c r="U47" s="1">
         <v>8999.669099999659</v>
       </c>
-      <c r="V47" s="1">
+      <c r="V47" s="2">
         <v>83.042000000204993</v>
       </c>
-      <c r="W47" s="1">
+      <c r="W47" s="2">
         <v>3.5760000000664101</v>
       </c>
-      <c r="X47" s="1">
+      <c r="X47" s="2">
         <v>33.299900000201795</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y47" s="2">
+        <v>0.40129999999999999</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>4.5800000007147901</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>201</v>
       </c>
@@ -4025,17 +4316,23 @@
       <c r="U48" s="1">
         <v>9016.8914999994704</v>
       </c>
-      <c r="V48" s="1">
+      <c r="V48" s="2">
         <v>83.237699999699501</v>
       </c>
-      <c r="W48" s="1">
+      <c r="W48" s="2">
         <v>3.6247999996703499</v>
       </c>
-      <c r="X48" s="1">
+      <c r="X48" s="2">
         <v>33.718199999384503</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y48" s="2">
+        <v>0.39129999999999998</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>4.6399999991990599</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>201</v>
       </c>
@@ -4099,17 +4396,23 @@
       <c r="U49" s="1">
         <v>9015.2602999996798</v>
       </c>
-      <c r="V49" s="1">
+      <c r="V49" s="2">
         <v>83.514399999330593</v>
       </c>
-      <c r="W49" s="1">
+      <c r="W49" s="2">
         <v>3.5879999995813701</v>
       </c>
-      <c r="X49" s="1">
+      <c r="X49" s="2">
         <v>34.613900000294898</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y49" s="2">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>4.6380999992834404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>202</v>
       </c>
@@ -4173,17 +4476,23 @@
       <c r="U50" s="1">
         <v>8998.0284000002903</v>
       </c>
-      <c r="V50" s="1">
+      <c r="V50" s="2">
         <v>83.147699999244594</v>
       </c>
-      <c r="W50" s="1">
+      <c r="W50" s="2">
         <v>3.5212000002502397</v>
       </c>
-      <c r="X50" s="1">
+      <c r="X50" s="2">
         <v>34.620100000210996</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y50" s="2">
+        <v>0.38829999999999998</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>4.5601999991049498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>200</v>
       </c>
@@ -4247,17 +4556,23 @@
       <c r="U51" s="1">
         <v>8994.4364000002606</v>
       </c>
-      <c r="V51" s="1">
+      <c r="V51" s="2">
         <v>83.375799999885203</v>
       </c>
-      <c r="W51" s="1">
+      <c r="W51" s="2">
         <v>3.5098999996989697</v>
       </c>
-      <c r="X51" s="1">
+      <c r="X51" s="2">
         <v>33.046499999727502</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y51" s="2">
+        <v>0.41149999999999998</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>4.5651000000361801</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>216</v>
       </c>
@@ -4321,17 +4636,23 @@
       <c r="U52" s="1">
         <v>9002.6332999996102</v>
       </c>
-      <c r="V52" s="1">
+      <c r="V52" s="2">
         <v>83.1032000005507</v>
       </c>
-      <c r="W52" s="1">
+      <c r="W52" s="2">
         <v>3.5588999999163198</v>
       </c>
-      <c r="X52" s="1">
+      <c r="X52" s="2">
         <v>33.278399999289796</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y52" s="2">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>4.5655000030819695</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>201</v>
       </c>
@@ -4395,17 +4716,23 @@
       <c r="U53" s="1">
         <v>8989.366400000099</v>
       </c>
-      <c r="V53" s="1">
+      <c r="V53" s="2">
         <v>83.084900000358104</v>
       </c>
-      <c r="W53" s="1">
+      <c r="W53" s="2">
         <v>3.6067000000912199</v>
       </c>
-      <c r="X53" s="1">
+      <c r="X53" s="2">
         <v>33.266899999944101</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y53" s="2">
+        <v>0.501</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>4.7665999991295296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>202</v>
       </c>
@@ -4469,17 +4796,23 @@
       <c r="U54" s="1">
         <v>8985.2203999998892</v>
       </c>
-      <c r="V54" s="1">
+      <c r="V54" s="2">
         <v>83.302899999580404</v>
       </c>
-      <c r="W54" s="1">
+      <c r="W54" s="2">
         <v>3.6319999999250197</v>
       </c>
-      <c r="X54" s="1">
+      <c r="X54" s="2">
         <v>33.112600000094901</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y54" s="2">
+        <v>0.45860000000000001</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>4.5590999980049602</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>225</v>
       </c>
@@ -4543,17 +4876,23 @@
       <c r="U55" s="1">
         <v>8992.3097000000689</v>
       </c>
-      <c r="V55" s="1">
+      <c r="V55" s="2">
         <v>83.535099999607993</v>
       </c>
-      <c r="W55" s="1">
+      <c r="W55" s="2">
         <v>3.5658000006151198</v>
       </c>
-      <c r="X55" s="1">
+      <c r="X55" s="2">
         <v>33.599800000047196</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y55" s="2">
+        <v>0.49380000000000002</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>4.55940000028931</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>188</v>
       </c>
@@ -4617,17 +4956,23 @@
       <c r="U56" s="1">
         <v>8996.1647999998604</v>
       </c>
-      <c r="V56" s="1">
+      <c r="V56" s="2">
         <v>83.769999999276394</v>
       </c>
-      <c r="W56" s="1">
+      <c r="W56" s="2">
         <v>3.5671000005095199</v>
       </c>
-      <c r="X56" s="1">
+      <c r="X56" s="2">
         <v>33.771299999898396</v>
       </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y56" s="2">
+        <v>0.41549999999999998</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>4.5620999990205702</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>188</v>
       </c>
@@ -4691,17 +5036,23 @@
       <c r="U57" s="1">
         <v>9002.4611999997396</v>
       </c>
-      <c r="V57" s="1">
+      <c r="V57" s="2">
         <v>83.176799999819195</v>
       </c>
-      <c r="W57" s="1">
+      <c r="W57" s="2">
         <v>3.5480999995343097</v>
       </c>
-      <c r="X57" s="1">
+      <c r="X57" s="2">
         <v>34.992800000509298</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y57" s="2">
+        <v>0.39860000000000001</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>4.6457999997073696</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>187</v>
       </c>
@@ -4765,17 +5116,23 @@
       <c r="U58" s="1">
         <v>9033.279199999919</v>
       </c>
-      <c r="V58" s="1">
+      <c r="V58" s="2">
         <v>83.213800000521502</v>
       </c>
-      <c r="W58" s="1">
+      <c r="W58" s="2">
         <v>3.5871000000042801</v>
       </c>
-      <c r="X58" s="1">
+      <c r="X58" s="2">
         <v>34.704500000770999</v>
       </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y58" s="2">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>4.58500000240746</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>186</v>
       </c>
@@ -4839,17 +5196,23 @@
       <c r="U59" s="1">
         <v>9036.0467999998891</v>
       </c>
-      <c r="V59" s="1">
+      <c r="V59" s="2">
         <v>83.271700000295795</v>
       </c>
-      <c r="W59" s="1">
+      <c r="W59" s="2">
         <v>3.5887000003640401</v>
       </c>
-      <c r="X59" s="1">
+      <c r="X59" s="2">
         <v>34.998799999812</v>
       </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y59" s="2">
+        <v>0.39029999999999998</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>4.5546000001195299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>194</v>
       </c>
@@ -4913,17 +5276,23 @@
       <c r="U60" s="1">
         <v>9028.8782999996292</v>
       </c>
-      <c r="V60" s="1">
+      <c r="V60" s="2">
         <v>83.117099999981193</v>
       </c>
-      <c r="W60" s="1">
+      <c r="W60" s="2">
         <v>3.5748000000239699</v>
       </c>
-      <c r="X60" s="1">
+      <c r="X60" s="2">
         <v>34.930099999655695</v>
       </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y60" s="2">
+        <v>0.3997</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>4.56240000130492</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>190</v>
       </c>
@@ -4987,17 +5356,23 @@
       <c r="U61" s="1">
         <v>9041.0314000000599</v>
       </c>
-      <c r="V61" s="1">
+      <c r="V61" s="2">
         <v>83.611799999744093</v>
       </c>
-      <c r="W61" s="1">
+      <c r="W61" s="2">
         <v>3.5402000003159597</v>
       </c>
-      <c r="X61" s="1">
+      <c r="X61" s="2">
         <v>34.041300000353601</v>
       </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y61" s="2">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>4.8109999988810097</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>186</v>
       </c>
@@ -5061,17 +5436,23 @@
       <c r="U62" s="1">
         <v>9034.3198000000393</v>
       </c>
-      <c r="V62" s="1">
+      <c r="V62" s="2">
         <v>83.541399999376097</v>
       </c>
-      <c r="W62" s="1">
+      <c r="W62" s="2">
         <v>3.57960000019375</v>
       </c>
-      <c r="X62" s="1">
+      <c r="X62" s="2">
         <v>34.175000000686801</v>
       </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y62" s="2">
+        <v>0.39090000000000003</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>4.5769999996991801</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>211</v>
       </c>
@@ -5135,17 +5516,23 @@
       <c r="U63" s="1">
         <v>9003.4464000000298</v>
       </c>
-      <c r="V63" s="1">
+      <c r="V63" s="2">
         <v>83.172999999987894</v>
       </c>
-      <c r="W63" s="1">
+      <c r="W63" s="2">
         <v>3.6114000004090396</v>
       </c>
-      <c r="X63" s="1">
+      <c r="X63" s="2">
         <v>33.840000000054701</v>
       </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y63" s="2">
+        <v>0.40460000000000002</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>4.5900000004621599</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>190</v>
       </c>
@@ -5209,17 +5596,23 @@
       <c r="U64" s="1">
         <v>9022.8578999995007</v>
       </c>
-      <c r="V64" s="1">
+      <c r="V64" s="2">
         <v>83.137499999793292</v>
       </c>
-      <c r="W64" s="1">
+      <c r="W64" s="2">
         <v>3.5825999993903599</v>
       </c>
-      <c r="X64" s="1">
+      <c r="X64" s="2">
         <v>33.424600000216699</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y64" s="2">
+        <v>0.40029999999999999</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>4.6164999985194299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>187</v>
       </c>
@@ -5283,17 +5676,23 @@
       <c r="U65" s="1">
         <v>8979.9825999998502</v>
       </c>
-      <c r="V65" s="1">
+      <c r="V65" s="2">
         <v>83.391300000585005</v>
       </c>
-      <c r="W65" s="1">
+      <c r="W65" s="2">
         <v>3.5231000001658597</v>
       </c>
-      <c r="X65" s="1">
+      <c r="X65" s="2">
         <v>33.617100000810701</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y65" s="2">
+        <v>0.40920000000000001</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>4.6336000013979994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>186</v>
       </c>
@@ -5357,17 +5756,23 @@
       <c r="U66" s="1">
         <v>9007.3391999994692</v>
       </c>
-      <c r="V66" s="1">
+      <c r="V66" s="2">
         <v>83.120000000235393</v>
       </c>
-      <c r="W66" s="1">
+      <c r="W66" s="2">
         <v>3.6749999999301499</v>
       </c>
-      <c r="X66" s="1">
+      <c r="X66" s="2">
         <v>33.792599999287596</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y66" s="2">
+        <v>0.39119999999999999</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>4.5659000024897898</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>186</v>
       </c>
@@ -5431,17 +5836,23 @@
       <c r="U67" s="1">
         <v>9004.1507999994792</v>
       </c>
-      <c r="V67" s="1">
+      <c r="V67" s="2">
         <v>83.378600000287406</v>
       </c>
-      <c r="W67" s="1">
+      <c r="W67" s="2">
         <v>3.5498999995979799</v>
       </c>
-      <c r="X67" s="1">
+      <c r="X67" s="2">
         <v>33.689999999296496</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y67" s="2">
+        <v>0.40489999999999998</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>4.5548999987659</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>188</v>
       </c>
@@ -5505,17 +5916,23 @@
       <c r="U68" s="1">
         <v>9160.15569999945</v>
       </c>
-      <c r="V68" s="1">
+      <c r="V68" s="2">
         <v>83.552000000054193</v>
       </c>
-      <c r="W68" s="1">
+      <c r="W68" s="2">
         <v>3.6320999997769801</v>
       </c>
-      <c r="X68" s="1">
+      <c r="X68" s="2">
         <v>33.935599999494997</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y68" s="2">
+        <v>0.39439999999999997</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>4.6308999990287703</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>186</v>
       </c>
@@ -5579,17 +5996,23 @@
       <c r="U69" s="1">
         <v>9022.0368000000199</v>
       </c>
-      <c r="V69" s="1">
+      <c r="V69" s="2">
         <v>83.124999999199602</v>
       </c>
-      <c r="W69" s="1">
+      <c r="W69" s="2">
         <v>3.60120000004826</v>
       </c>
-      <c r="X69" s="1">
+      <c r="X69" s="2">
         <v>33.686200000374797</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y69" s="2">
+        <v>0.40229999999999999</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>4.5775000035064197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>191</v>
       </c>
@@ -5653,17 +6076,23 @@
       <c r="U70" s="1">
         <v>9054.2406000004103</v>
       </c>
-      <c r="V70" s="1">
+      <c r="V70" s="2">
         <v>83.3195999994131</v>
       </c>
-      <c r="W70" s="1">
+      <c r="W70" s="2">
         <v>3.5950999999840798</v>
       </c>
-      <c r="X70" s="1">
+      <c r="X70" s="2">
         <v>33.865599999444299</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y70" s="2">
+        <v>0.40279999999999999</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>4.5582000020658597</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>189</v>
       </c>
@@ -5727,17 +6156,23 @@
       <c r="U71" s="1">
         <v>9002.7551000002804</v>
       </c>
-      <c r="V71" s="1">
+      <c r="V71" s="2">
         <v>83.081300000230797</v>
       </c>
-      <c r="W71" s="1">
+      <c r="W71" s="2">
         <v>3.5126000002492201</v>
       </c>
-      <c r="X71" s="1">
+      <c r="X71" s="2">
         <v>33.459799999945901</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y71" s="2">
+        <v>0.41789999999999999</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>4.5620999990205702</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>186</v>
       </c>
@@ -5801,17 +6236,23 @@
       <c r="U72" s="1">
         <v>9010.2176000000291</v>
       </c>
-      <c r="V72" s="1">
+      <c r="V72" s="2">
         <v>83.235000000058704</v>
       </c>
-      <c r="W72" s="1">
+      <c r="W72" s="2">
         <v>3.5423999997874396</v>
       </c>
-      <c r="X72" s="1">
+      <c r="X72" s="2">
         <v>32.960399999865302</v>
       </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y72" s="2">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>4.7783000009076204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>186</v>
       </c>
@@ -5875,17 +6316,23 @@
       <c r="U73" s="1">
         <v>9037.5186000001104</v>
       </c>
-      <c r="V73" s="1">
+      <c r="V73" s="2">
         <v>83.219899999676201</v>
       </c>
-      <c r="W73" s="1">
+      <c r="W73" s="2">
         <v>3.55119999949238</v>
       </c>
-      <c r="X73" s="1">
+      <c r="X73" s="2">
         <v>32.945199999630802</v>
       </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y73" s="2">
+        <v>0.40560000000000002</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>4.6958000020822501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>187</v>
       </c>
@@ -5949,17 +6396,23 @@
       <c r="U74" s="1">
         <v>9046.6931000000804</v>
       </c>
-      <c r="V74" s="1">
+      <c r="V74" s="2">
         <v>83.669599999666303</v>
       </c>
-      <c r="W74" s="1">
+      <c r="W74" s="2">
         <v>3.59769999977288</v>
       </c>
-      <c r="X74" s="1">
+      <c r="X74" s="2">
         <v>33.637700000326696</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y74" s="2">
+        <v>0.3901</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>4.5594999974127797</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>186</v>
       </c>
@@ -6023,17 +6476,23 @@
       <c r="U75" s="1">
         <v>8982.2880000001496</v>
       </c>
-      <c r="V75" s="1">
+      <c r="V75" s="2">
         <v>83.227699999952094</v>
       </c>
-      <c r="W75" s="1">
+      <c r="W75" s="2">
         <v>3.5732000005736997</v>
       </c>
-      <c r="X75" s="1">
+      <c r="X75" s="2">
         <v>33.395900000868998</v>
       </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y75" s="2">
+        <v>0.3911</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>4.5615999988512996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>188</v>
       </c>
@@ -6097,17 +6556,23 @@
       <c r="U76" s="1">
         <v>9007.9929000003103</v>
       </c>
-      <c r="V76" s="1">
+      <c r="V76" s="2">
         <v>83.077399999638104</v>
       </c>
-      <c r="W76" s="1">
+      <c r="W76" s="2">
         <v>3.58639999922161</v>
       </c>
-      <c r="X76" s="1">
+      <c r="X76" s="2">
         <v>33.275099999627798</v>
       </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y76" s="2">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>4.6413000018219401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>187</v>
       </c>
@@ -6171,17 +6636,23 @@
       <c r="U77" s="1">
         <v>8959.7001000001892</v>
       </c>
-      <c r="V77" s="1">
+      <c r="V77" s="2">
         <v>83.126900000024705</v>
       </c>
-      <c r="W77" s="1">
+      <c r="W77" s="2">
         <v>4.9872999998115102</v>
       </c>
-      <c r="X77" s="1">
+      <c r="X77" s="2">
         <v>33.106000000770997</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y77" s="2">
+        <v>0.3901</v>
+      </c>
+      <c r="Z77" s="2">
+        <v>4.5777000013913396</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>186</v>
       </c>
@@ -6245,17 +6716,23 @@
       <c r="U78" s="1">
         <v>8970.3073999999106</v>
       </c>
-      <c r="V78" s="1">
+      <c r="V78" s="2">
         <v>83.170400000199095</v>
       </c>
-      <c r="W78" s="1">
+      <c r="W78" s="2">
         <v>3.6042000001543699</v>
       </c>
-      <c r="X78" s="1">
+      <c r="X78" s="2">
         <v>33.207200000106198</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y78" s="2">
+        <v>0.40550000000000003</v>
+      </c>
+      <c r="Z78" s="2">
+        <v>4.5532000003731801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>186</v>
       </c>
@@ -6319,17 +6796,23 @@
       <c r="U79" s="1">
         <v>8976.2608999999393</v>
       </c>
-      <c r="V79" s="1">
+      <c r="V79" s="2">
         <v>83.141600000089895</v>
       </c>
-      <c r="W79" s="1">
+      <c r="W79" s="2">
         <v>3.5615999995570697</v>
       </c>
-      <c r="X79" s="1">
+      <c r="X79" s="2">
         <v>32.8004000002692</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y79" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="Z79" s="2">
+        <v>4.5876999975007395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>188</v>
       </c>
@@ -6393,17 +6876,23 @@
       <c r="U80" s="1">
         <v>8977.1689999997707</v>
       </c>
-      <c r="V80" s="1">
+      <c r="V80" s="2">
         <v>83.549300000413496</v>
       </c>
-      <c r="W80" s="1">
+      <c r="W80" s="2">
         <v>3.5477000001264898</v>
       </c>
-      <c r="X80" s="1">
+      <c r="X80" s="2">
         <v>32.997599999362102</v>
       </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y80" s="2">
+        <v>0.4204</v>
+      </c>
+      <c r="Z80" s="2">
+        <v>4.6734999996260695</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>186</v>
       </c>
@@ -6467,17 +6956,23 @@
       <c r="U81" s="1">
         <v>9009.8514000001105</v>
       </c>
-      <c r="V81" s="1">
+      <c r="V81" s="2">
         <v>83.241000000271001</v>
       </c>
-      <c r="W81" s="1">
+      <c r="W81" s="2">
         <v>3.87099999989004</v>
       </c>
-      <c r="X81" s="1">
+      <c r="X81" s="2">
         <v>33.345499999995802</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y81" s="2">
+        <v>0.3926</v>
+      </c>
+      <c r="Z81" s="2">
+        <v>4.5654000023205299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>186</v>
       </c>
@@ -6541,17 +7036,23 @@
       <c r="U82" s="1">
         <v>8999.60250000003</v>
       </c>
-      <c r="V82" s="1">
+      <c r="V82" s="2">
         <v>83.051800000248392</v>
       </c>
-      <c r="W82" s="1">
+      <c r="W82" s="2">
         <v>3.4673000000111598</v>
       </c>
-      <c r="X82" s="1">
+      <c r="X82" s="2">
         <v>33.963300000323201</v>
       </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y82" s="2">
+        <v>0.40339999999999998</v>
+      </c>
+      <c r="Z82" s="2">
+        <v>4.5610000015585594</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>186</v>
       </c>
@@ -6615,17 +7116,23 @@
       <c r="U83" s="1">
         <v>8980.0219999997298</v>
       </c>
-      <c r="V83" s="1">
+      <c r="V83" s="2">
         <v>83.262099999956192</v>
       </c>
-      <c r="W83" s="1">
+      <c r="W83" s="2">
         <v>3.57549999989714</v>
       </c>
-      <c r="X83" s="1">
+      <c r="X83" s="2">
         <v>33.161199999994999</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y83" s="2">
+        <v>0.3931</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>4.5926999991934201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>187</v>
       </c>
@@ -6689,17 +7196,23 @@
       <c r="U84" s="1">
         <v>8977.3918999999296</v>
       </c>
-      <c r="V84" s="1">
+      <c r="V84" s="2">
         <v>83.212000000457905</v>
       </c>
-      <c r="W84" s="1">
+      <c r="W84" s="2">
         <v>3.5353000002942196</v>
       </c>
-      <c r="X84" s="1">
+      <c r="X84" s="2">
         <v>33.294699999714695</v>
       </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y84" s="2">
+        <v>0.40389999999999998</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>4.6643999994557799</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>187</v>
       </c>
@@ -6763,17 +7276,23 @@
       <c r="U85" s="1">
         <v>8978.1882999995996</v>
       </c>
-      <c r="V85" s="1">
+      <c r="V85" s="2">
         <v>83.106500000212591</v>
       </c>
-      <c r="W85" s="1">
+      <c r="W85" s="2">
         <v>3.5262999999758899</v>
       </c>
-      <c r="X85" s="1">
+      <c r="X85" s="2">
         <v>33.4084000005532</v>
       </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y85" s="2">
+        <v>0.42380000000000001</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>4.5695000007981399</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>187</v>
       </c>
@@ -6837,17 +7356,23 @@
       <c r="U86" s="1">
         <v>8977.1474000008293</v>
       </c>
-      <c r="V86" s="1">
+      <c r="V86" s="2">
         <v>83.408099999360203</v>
       </c>
-      <c r="W86" s="1">
+      <c r="W86" s="2">
         <v>3.7426999997478498</v>
       </c>
-      <c r="X86" s="1">
+      <c r="X86" s="2">
         <v>33.1403999998656</v>
       </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y86" s="2">
+        <v>0.40229999999999999</v>
+      </c>
+      <c r="Z86" s="2">
+        <v>4.5605999985127701</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>188</v>
       </c>
@@ -6911,17 +7436,23 @@
       <c r="U87" s="1">
         <v>8930.88850000003</v>
       </c>
-      <c r="V87" s="1">
+      <c r="V87" s="2">
         <v>83.562300000266902</v>
       </c>
-      <c r="W87" s="1">
+      <c r="W87" s="2">
         <v>3.50450000041746</v>
       </c>
-      <c r="X87" s="1">
+      <c r="X87" s="2">
         <v>33.471600000666498</v>
       </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y87" s="2">
+        <v>0.39429999999999998</v>
+      </c>
+      <c r="Z87" s="2">
+        <v>4.6468000000459098</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>187</v>
       </c>
@@ -6985,17 +7516,23 @@
       <c r="U88" s="1">
         <v>8939.1436999994694</v>
       </c>
-      <c r="V88" s="1">
+      <c r="V88" s="2">
         <v>83.095999999386493</v>
       </c>
-      <c r="W88" s="1">
+      <c r="W88" s="2">
         <v>3.5654000002978101</v>
       </c>
-      <c r="X88" s="1">
+      <c r="X88" s="2">
         <v>33.288399999946698</v>
       </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y88" s="2">
+        <v>0.40439999999999998</v>
+      </c>
+      <c r="Z88" s="2">
+        <v>4.7004999978526003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>188</v>
       </c>
@@ -7059,17 +7596,23 @@
       <c r="U89" s="1">
         <v>8941.3617000000104</v>
       </c>
-      <c r="V89" s="1">
+      <c r="V89" s="2">
         <v>83.315799999581898</v>
       </c>
-      <c r="W89" s="1">
+      <c r="W89" s="2">
         <v>3.5627999995995103</v>
       </c>
-      <c r="X89" s="1">
+      <c r="X89" s="2">
         <v>33.325399999739602</v>
       </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y89" s="2">
+        <v>0.39090000000000003</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>4.6525000034307498</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>187</v>
       </c>
@@ -7133,17 +7676,23 @@
       <c r="U90" s="1">
         <v>8985.90150000018</v>
       </c>
-      <c r="V90" s="1">
+      <c r="V90" s="2">
         <v>83.080899999913498</v>
       </c>
-      <c r="W90" s="1">
+      <c r="W90" s="2">
         <v>3.6238000002413098</v>
       </c>
-      <c r="X90" s="1">
+      <c r="X90" s="2">
         <v>33.521700000164799</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y90" s="2">
+        <v>0.40179999999999999</v>
+      </c>
+      <c r="Z90" s="2">
+        <v>4.6102000014798197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>188</v>
       </c>
@@ -7207,17 +7756,23 @@
       <c r="U91" s="1">
         <v>8979.5297999999093</v>
       </c>
-      <c r="V91" s="1">
+      <c r="V91" s="2">
         <v>83.2325999999739</v>
       </c>
-      <c r="W91" s="1">
+      <c r="W91" s="2">
         <v>3.5950999999840798</v>
       </c>
-      <c r="X91" s="1">
+      <c r="X91" s="2">
         <v>33.5857000000032</v>
       </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y91" s="2">
+        <v>0.39560000000000001</v>
+      </c>
+      <c r="Z91" s="2">
+        <v>4.5549999995273502</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>189</v>
       </c>
@@ -7281,17 +7836,23 @@
       <c r="U92" s="1">
         <v>8962.9493000002094</v>
       </c>
-      <c r="V92" s="1">
+      <c r="V92" s="2">
         <v>83.104800000000893</v>
       </c>
-      <c r="W92" s="1">
+      <c r="W92" s="2">
         <v>3.5335000002305601</v>
       </c>
-      <c r="X92" s="1">
+      <c r="X92" s="2">
         <v>33.2052000003386</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y92" s="2">
+        <v>0.39179999999999998</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>4.6632000012323198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>194</v>
       </c>
@@ -7355,17 +7916,23 @@
       <c r="U93" s="1">
         <v>8948.7637000001996</v>
       </c>
-      <c r="V93" s="1">
+      <c r="V93" s="2">
         <v>83.243099999890504</v>
       </c>
-      <c r="W93" s="1">
+      <c r="W93" s="2">
         <v>3.5975000000689699</v>
       </c>
-      <c r="X93" s="1">
+      <c r="X93" s="2">
         <v>33.169000000270898</v>
       </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y93" s="2">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>4.58710000020801</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>197</v>
       </c>
@@ -7429,17 +7996,23 @@
       <c r="U94" s="1">
         <v>8925.3652999996102</v>
       </c>
-      <c r="V94" s="1">
+      <c r="V94" s="2">
         <v>83.349800000178206</v>
       </c>
-      <c r="W94" s="1">
+      <c r="W94" s="2">
         <v>3.64179999996849</v>
       </c>
-      <c r="X94" s="1">
+      <c r="X94" s="2">
         <v>33.101699999860998</v>
       </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y94" s="2">
+        <v>0.39179999999999998</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>4.5543999985966295</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>188</v>
       </c>
@@ -7503,17 +8076,23 @@
       <c r="U95" s="1">
         <v>8954.5973000003796</v>
       </c>
-      <c r="V95" s="1">
+      <c r="V95" s="2">
         <v>83.436300000357704</v>
       </c>
-      <c r="W95" s="1">
+      <c r="W95" s="2">
         <v>3.6396999994394701</v>
       </c>
-      <c r="X95" s="1">
+      <c r="X95" s="2">
         <v>33.152300000438096</v>
       </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y95" s="2">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="Z95" s="2">
+        <v>4.6572999999625599</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>186</v>
       </c>
@@ -7577,17 +8156,23 @@
       <c r="U96" s="1">
         <v>8949.0804999995798</v>
       </c>
-      <c r="V96" s="1">
+      <c r="V96" s="2">
         <v>83.111599999938292</v>
       </c>
-      <c r="W96" s="1">
+      <c r="W96" s="2">
         <v>3.60799999998562</v>
       </c>
-      <c r="X96" s="1">
+      <c r="X96" s="2">
         <v>33.170300000165298</v>
       </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y96" s="2">
+        <v>0.38869999999999999</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>4.5619000011356503</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>187</v>
       </c>
@@ -7651,17 +8236,23 @@
       <c r="U97" s="1">
         <v>8943.4283000000505</v>
       </c>
-      <c r="V97" s="1">
+      <c r="V97" s="2">
         <v>83.471399999325499</v>
       </c>
-      <c r="W97" s="1">
+      <c r="W97" s="2">
         <v>3.5332999996171499</v>
       </c>
-      <c r="X97" s="1">
+      <c r="X97" s="2">
         <v>33.713100000568296</v>
       </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y97" s="2">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="Z97" s="2">
+        <v>4.5715999985986802</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>187</v>
       </c>
@@ -7725,17 +8316,23 @@
       <c r="U98" s="1">
         <v>8933.026900000179</v>
       </c>
-      <c r="V98" s="1">
+      <c r="V98" s="2">
         <v>83.243399999446396</v>
       </c>
-      <c r="W98" s="1">
+      <c r="W98" s="2">
         <v>3.62370000038936</v>
       </c>
-      <c r="X98" s="1">
+      <c r="X98" s="2">
         <v>32.959700000901599</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y98" s="2">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="Z98" s="2">
+        <v>4.5988999991095598</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>188</v>
       </c>
@@ -7799,17 +8396,23 @@
       <c r="U99" s="1">
         <v>8975.5352000001894</v>
       </c>
-      <c r="V99" s="1">
+      <c r="V99" s="2">
         <v>83.521399999881396</v>
       </c>
-      <c r="W99" s="1">
+      <c r="W99" s="2">
         <v>3.6087999997107501</v>
       </c>
-      <c r="X99" s="1">
+      <c r="X99" s="2">
         <v>33.198900000570497</v>
       </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y99" s="2">
+        <v>0.40339999999999998</v>
+      </c>
+      <c r="Z99" s="2">
+        <v>4.6660000007250302</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>187</v>
       </c>
@@ -7873,17 +8476,23 @@
       <c r="U100" s="1">
         <v>8954.7278999998507</v>
       </c>
-      <c r="V100" s="1">
+      <c r="V100" s="2">
         <v>83.325399999921501</v>
       </c>
-      <c r="W100" s="1">
+      <c r="W100" s="2">
         <v>3.58739999956014</v>
       </c>
-      <c r="X100" s="1">
+      <c r="X100" s="2">
         <v>33.281299999543897</v>
       </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y100" s="2">
+        <v>0.39179999999999998</v>
+      </c>
+      <c r="Z100" s="2">
+        <v>4.5554999996966199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>187</v>
       </c>
@@ -7947,14 +8556,20 @@
       <c r="U101" s="1">
         <v>8950.7825000000594</v>
       </c>
-      <c r="V101" s="1">
+      <c r="V101" s="2">
         <v>83.127599999897896</v>
       </c>
-      <c r="W101" s="1">
+      <c r="W101" s="2">
         <v>3.6290000007284098</v>
       </c>
-      <c r="X101" s="1">
+      <c r="X101" s="2">
         <v>33.179900000504801</v>
+      </c>
+      <c r="Y101" s="2">
+        <v>0.39119999999999999</v>
+      </c>
+      <c r="Z101" s="2">
+        <v>4.5668999991903503</v>
       </c>
     </row>
   </sheetData>
